--- a/data/trans_orig/IP41-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP41-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306DB6F7-AFB9-416D-A612-3A569420F2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FE859A-6B5D-4E27-90B8-8B384DA03B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{074C97DE-96D9-4169-8925-66D413E3B543}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2589C1F6-8A3E-4E9E-B5BA-3272A7E48D53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
   <si>
     <t>Adulto según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>91,78%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -233,55 +233,55 @@
     <t>92,27%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>88,98%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -299,55 +299,49 @@
     <t>92,08%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>89,95%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -362,7 +356,7 @@
     <t>92,38%</t>
   </si>
   <si>
-    <t>90,62%</t>
+    <t>90,63%</t>
   </si>
   <si>
     <t>93,83%</t>
@@ -374,16 +368,16 @@
     <t>89,01%</t>
   </si>
   <si>
-    <t>92,79%</t>
+    <t>92,74%</t>
   </si>
   <si>
     <t>91,76%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>7,62%</t>
@@ -392,13 +386,13 @@
     <t>6,17%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>9,37%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>10,99%</t>
@@ -407,10 +401,10 @@
     <t>8,24%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -428,49 +422,43 @@
     <t>91,23%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -479,49 +467,55 @@
     <t>89,36%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>88,62%</t>
   </si>
   <si>
-    <t>86,07%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -536,55 +530,55 @@
     <t>88,76%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -599,112 +593,106 @@
     <t>83,87%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>88,28%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>87,16%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>12,84%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2015 (Tasa respuesta: 99,86%)</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Adulto según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -713,286 +701,286 @@
     <t>88,09%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>82,75%</t>
   </si>
   <si>
     <t>88,69%</t>
   </si>
   <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1476,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F681D72C-1977-4064-8131-C42F567D1F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF9FD9-921A-4EFE-BDE3-87F01A760F11}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2090,7 +2078,7 @@
         <v>353</v>
       </c>
       <c r="N13" s="7">
-        <v>235356</v>
+        <v>235355</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
@@ -2192,7 +2180,7 @@
         <v>396</v>
       </c>
       <c r="N15" s="7">
-        <v>264502</v>
+        <v>264501</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2290,7 +2278,7 @@
         <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>546</v>
@@ -2299,13 +2287,13 @@
         <v>366470</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2308,13 @@
         <v>16177</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2335,13 +2323,13 @@
         <v>12922</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>43</v>
@@ -2350,13 +2338,13 @@
         <v>29100</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,37 +2418,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2463,13 @@
         <v>661138</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>916</v>
@@ -2490,13 +2478,13 @@
         <v>611473</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>1909</v>
@@ -2505,13 +2493,13 @@
         <v>1272611</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2514,13 @@
         <v>54502</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -2541,13 +2529,13 @@
         <v>59790</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -2556,13 +2544,13 @@
         <v>114292</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2606,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A4F33-06BD-4A37-B9B6-181DF45167C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59789C4A-043F-4EF4-AB78-EA3ACB56414F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2783,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2798,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2801,13 @@
         <v>133186</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -2828,13 +2816,13 @@
         <v>138020</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>394</v>
@@ -2843,13 +2831,13 @@
         <v>271206</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2852,13 @@
         <v>12804</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H6" s="7">
         <v>13</v>
@@ -2879,13 +2867,13 @@
         <v>8741</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -2894,13 +2882,13 @@
         <v>21545</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3007,13 @@
         <v>240365</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>298</v>
@@ -3034,13 +3022,13 @@
         <v>207385</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>632</v>
@@ -3049,13 +3037,13 @@
         <v>447749</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3058,13 @@
         <v>28626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3085,13 +3073,13 @@
         <v>28865</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3100,13 +3088,13 @@
         <v>57492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,37 +3168,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3213,13 @@
         <v>140751</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -3240,13 +3228,13 @@
         <v>137740</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
@@ -3255,13 +3243,13 @@
         <v>278491</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3264,13 @@
         <v>17820</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3291,13 +3279,13 @@
         <v>18585</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -3306,13 +3294,13 @@
         <v>36405</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,37 +3374,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3419,13 @@
         <v>150930</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>213</v>
@@ -3446,13 +3434,13 @@
         <v>150578</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -3461,13 +3449,13 @@
         <v>301508</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3470,13 @@
         <v>29025</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -3497,13 +3485,13 @@
         <v>20759</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -3512,13 +3500,13 @@
         <v>49784</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,37 +3580,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3625,13 @@
         <v>665232</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>912</v>
@@ -3652,13 +3640,13 @@
         <v>633723</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="M21" s="7">
         <v>1859</v>
@@ -3667,13 +3655,13 @@
         <v>1298955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3676,13 @@
         <v>88275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -3703,13 +3691,13 @@
         <v>76950</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -3718,13 +3706,13 @@
         <v>165225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,7 +3768,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +3788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAB0C6C-E8E8-465A-8DD2-E40545C1B6C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94A3469-0C54-40EE-93DB-0A7486A5951A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3817,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3945,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3975,13 +3963,13 @@
         <v>109378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7">
         <v>187</v>
@@ -3990,13 +3978,13 @@
         <v>116768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
@@ -4005,13 +3993,13 @@
         <v>226146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4014,13 @@
         <v>14786</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -4041,13 +4029,13 @@
         <v>14886</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4056,13 +4044,13 @@
         <v>29672</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4166,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4169,13 @@
         <v>214364</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H9" s="7">
         <v>288</v>
@@ -4196,13 +4184,13 @@
         <v>182346</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7">
         <v>604</v>
@@ -4211,13 +4199,13 @@
         <v>396711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4220,13 @@
         <v>43063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4247,13 +4235,13 @@
         <v>28171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -4262,13 +4250,13 @@
         <v>71233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4357,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4372,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4375,13 @@
         <v>153389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -4402,13 +4390,13 @@
         <v>149291</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -4417,13 +4405,13 @@
         <v>302680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4426,13 @@
         <v>34530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -4453,13 +4441,13 @@
         <v>38707</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -4468,13 +4456,13 @@
         <v>73238</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4563,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4578,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4581,13 @@
         <v>145639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -4608,13 +4596,13 @@
         <v>143871</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -4623,13 +4611,13 @@
         <v>289509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4632,13 @@
         <v>28409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -4659,13 +4647,13 @@
         <v>29430</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4674,13 +4662,13 @@
         <v>57839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,37 +4742,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4787,13 @@
         <v>622770</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H21" s="7">
         <v>896</v>
@@ -4814,13 +4802,13 @@
         <v>592276</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M21" s="7">
         <v>1789</v>
@@ -4829,13 +4817,13 @@
         <v>1215045</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4838,13 @@
         <v>120788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -4865,13 +4853,13 @@
         <v>111194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -4880,13 +4868,13 @@
         <v>231983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4930,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BCECC8-BC51-4C79-9448-1C45F531809C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE82FA8E-BB70-4F8B-9380-F0769004FD48}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,10 +5074,10 @@
         <v>58503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -5101,10 +5089,10 @@
         <v>57369</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5116,10 +5104,10 @@
         <v>115871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5143,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5158,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5173,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5209,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5224,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,10 +5280,10 @@
         <v>175299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -5307,10 +5295,10 @@
         <v>158765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -5322,10 +5310,10 @@
         <v>334063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -5349,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5364,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5379,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,7 +5388,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5415,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5430,7 +5418,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,10 +5486,10 @@
         <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -5513,10 +5501,10 @@
         <v>176945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -5528,10 +5516,10 @@
         <v>379424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -5555,7 +5543,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5570,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5585,7 +5573,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,7 +5594,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5621,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5636,7 +5624,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,10 +5692,10 @@
         <v>289424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -5719,10 +5707,10 @@
         <v>260633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -5734,10 +5722,10 @@
         <v>550057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -5791,7 +5779,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5830,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,10 +5898,10 @@
         <v>725704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -5925,10 +5913,10 @@
         <v>653712</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -5940,10 +5928,10 @@
         <v>1379416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5967,7 +5955,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5982,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5997,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,7 +6006,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6033,7 +6021,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6048,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,7 +6092,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP41-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP41-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FE859A-6B5D-4E27-90B8-8B384DA03B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADD5BF7-A98B-4570-A018-06B3A87A1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2589C1F6-8A3E-4E9E-B5BA-3272A7E48D53}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC037B5-9DB9-4BFE-9DC8-8EB39922CD2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="338">
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="340">
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2007 (Tasa respuesta: 98,81%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,73 +80,73 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,706 +155,712 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
     <t>92,98%</t>
   </si>
   <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2016 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>17,72%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
     <t>83,27%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
     <t>81,62%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,02%</t>
+    <t>76,88%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>19,48%</t>
@@ -863,169 +869,169 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>22,98%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>Adulto según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>Progenitores según si está casado y/o vive en pareja en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,26%</t>
+  </si>
+  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
     <t>99,15%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>99,64%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1464,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF9FD9-921A-4EFE-BDE3-87F01A760F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD025A0-8B65-4EBE-8C2B-4A3C88948C20}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1633,10 +1639,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7">
-        <v>110066</v>
+        <v>98868</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1648,10 +1654,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I5" s="7">
-        <v>98868</v>
+        <v>110066</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1684,10 +1690,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>9860</v>
+        <v>5232</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1699,10 +1705,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>5232</v>
+        <v>9860</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1735,25 +1741,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>159</v>
+      </c>
+      <c r="D7" s="7">
+        <v>104100</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>180</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>119926</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>159</v>
-      </c>
-      <c r="I7" s="7">
-        <v>104100</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1839,10 +1845,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D9" s="7">
-        <v>234770</v>
+        <v>227081</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -1854,10 +1860,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="I9" s="7">
-        <v>227081</v>
+        <v>234770</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -1890,10 +1896,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>17723</v>
+        <v>23232</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1905,10 +1911,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>23232</v>
+        <v>17723</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1941,25 +1947,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>375</v>
+      </c>
+      <c r="D11" s="7">
+        <v>250313</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>252493</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>375</v>
-      </c>
-      <c r="I11" s="7">
-        <v>250313</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2045,10 +2051,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>128189</v>
+        <v>107166</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -2060,19 +2066,19 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
-        <v>107166</v>
+        <v>128189</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>353</v>
@@ -2081,13 +2087,13 @@
         <v>235355</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,34 +2102,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>18404</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>10742</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="7">
-        <v>27</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18404</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -2132,13 +2138,13 @@
         <v>29146</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,25 +2153,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>188</v>
+      </c>
+      <c r="D15" s="7">
+        <v>125570</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>208</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>138931</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>188</v>
-      </c>
-      <c r="I15" s="7">
-        <v>125570</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2194,7 +2200,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2212,37 +2218,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,34 +2257,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>263</v>
+      </c>
+      <c r="D17" s="7">
+        <v>178358</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
         <v>283</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>188112</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>263</v>
-      </c>
-      <c r="I17" s="7">
-        <v>178358</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>546</v>
@@ -2287,13 +2293,13 @@
         <v>366470</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,31 +2308,31 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12922</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="7">
         <v>24</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>16177</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="7">
-        <v>19</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12922</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>97</v>
@@ -2353,25 +2359,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>282</v>
+      </c>
+      <c r="D19" s="7">
+        <v>191280</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>307</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>204289</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>282</v>
-      </c>
-      <c r="I19" s="7">
-        <v>191280</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2457,10 +2463,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>993</v>
+        <v>916</v>
       </c>
       <c r="D21" s="7">
-        <v>661138</v>
+        <v>611473</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>104</v>
@@ -2472,10 +2478,10 @@
         <v>106</v>
       </c>
       <c r="H21" s="7">
-        <v>916</v>
+        <v>993</v>
       </c>
       <c r="I21" s="7">
-        <v>611473</v>
+        <v>661138</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>107</v>
@@ -2508,10 +2514,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>54502</v>
+        <v>59790</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>113</v>
@@ -2523,10 +2529,10 @@
         <v>115</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>59790</v>
+        <v>54502</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>116</v>
@@ -2559,25 +2565,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D23" s="7">
+        <v>671263</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1075</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>715640</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I23" s="7">
-        <v>671263</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2626,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59789C4A-043F-4EF4-AB78-EA3ACB56414F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE41510-CA08-445B-88D2-1460D4C9ADFF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2756,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2771,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2795,10 +2801,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D5" s="7">
-        <v>133186</v>
+        <v>138020</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>126</v>
@@ -2810,10 +2816,10 @@
         <v>128</v>
       </c>
       <c r="H5" s="7">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="I5" s="7">
-        <v>138020</v>
+        <v>133186</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>129</v>
@@ -2831,13 +2837,13 @@
         <v>271206</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,34 +2852,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8741</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>12804</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="7">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8741</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
         <v>32</v>
@@ -2885,10 +2891,10 @@
         <v>98</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,25 +2903,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2962,7 +2968,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2977,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2992,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,34 +3007,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>298</v>
+      </c>
+      <c r="D9" s="7">
+        <v>207385</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="7">
         <v>334</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240365</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="7">
-        <v>298</v>
-      </c>
-      <c r="I9" s="7">
-        <v>207385</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M9" s="7">
         <v>632</v>
@@ -3037,13 +3043,13 @@
         <v>447749</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,34 +3058,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7">
+        <v>28865</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="7">
         <v>40</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>28626</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="7">
-        <v>42</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28865</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3088,13 +3094,13 @@
         <v>57492</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,25 +3109,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3168,7 +3174,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3183,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3198,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,34 +3213,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>195</v>
+      </c>
+      <c r="D13" s="7">
+        <v>137740</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
         <v>203</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>140751</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="7">
-        <v>195</v>
-      </c>
-      <c r="I13" s="7">
-        <v>137740</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
@@ -3243,13 +3249,13 @@
         <v>278491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,31 +3264,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>18585</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="7">
         <v>25</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>17820</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="7">
-        <v>27</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18585</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>176</v>
@@ -3309,25 +3315,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7">
+        <v>156325</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>222</v>
-      </c>
-      <c r="I15" s="7">
-        <v>156325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3356,7 +3362,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3413,10 +3419,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D17" s="7">
-        <v>150930</v>
+        <v>150578</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>183</v>
@@ -3428,10 +3434,10 @@
         <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I17" s="7">
-        <v>150578</v>
+        <v>150930</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>186</v>
@@ -3464,10 +3470,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>29025</v>
+        <v>20759</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>192</v>
@@ -3479,10 +3485,10 @@
         <v>194</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>20759</v>
+        <v>29025</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>195</v>
@@ -3515,25 +3521,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3619,10 +3625,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>947</v>
+        <v>912</v>
       </c>
       <c r="D21" s="7">
-        <v>665232</v>
+        <v>633723</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>201</v>
@@ -3634,10 +3640,10 @@
         <v>203</v>
       </c>
       <c r="H21" s="7">
-        <v>912</v>
+        <v>947</v>
       </c>
       <c r="I21" s="7">
-        <v>633723</v>
+        <v>665232</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>204</v>
@@ -3646,7 +3652,7 @@
         <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>1859</v>
@@ -3655,13 +3661,13 @@
         <v>1298955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,34 +3676,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>112</v>
+      </c>
+      <c r="D22" s="7">
+        <v>76950</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="7">
         <v>127</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>88275</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="7">
-        <v>112</v>
-      </c>
-      <c r="I22" s="7">
-        <v>76950</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -3706,13 +3712,13 @@
         <v>165225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,25 +3727,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="7">
+        <v>710673</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1074</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>753507</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710673</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3788,7 +3794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94A3469-0C54-40EE-93DB-0A7486A5951A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CCE619-67C4-4AD7-8309-7BF3AD04F8F0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3805,7 +3811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3933,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3957,34 +3963,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>187</v>
+      </c>
+      <c r="D5" s="7">
+        <v>116768</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="7">
         <v>165</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>109378</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="7">
-        <v>187</v>
-      </c>
-      <c r="I5" s="7">
-        <v>116768</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>352</v>
@@ -3993,13 +3999,13 @@
         <v>226146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,34 +4014,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14886</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="7">
         <v>22</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>14786</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="7">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14886</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -4044,13 +4050,13 @@
         <v>29672</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,25 +4065,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4124,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4139,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4154,7 +4160,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,34 +4169,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>288</v>
+      </c>
+      <c r="D9" s="7">
+        <v>182346</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="7">
         <v>316</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>214364</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="7">
-        <v>288</v>
-      </c>
-      <c r="I9" s="7">
-        <v>182346</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>604</v>
@@ -4199,13 +4205,13 @@
         <v>396711</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,34 +4220,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>28171</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="7">
         <v>63</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>43063</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="7">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28171</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -4250,13 +4256,13 @@
         <v>71233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,25 +4271,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>379</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>257427</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4330,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4345,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4360,7 +4366,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,34 +4375,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>217</v>
+      </c>
+      <c r="D13" s="7">
+        <v>149291</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="7">
         <v>214</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>153389</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="7">
-        <v>217</v>
-      </c>
-      <c r="I13" s="7">
-        <v>149291</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -4405,13 +4411,13 @@
         <v>302680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,34 +4426,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7">
+        <v>38707</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="7">
         <v>48</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>34530</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" s="7">
-        <v>54</v>
-      </c>
-      <c r="I14" s="7">
-        <v>38707</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -4456,13 +4462,13 @@
         <v>73238</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,25 +4477,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>271</v>
+      </c>
+      <c r="D15" s="7">
+        <v>187998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>187919</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>271</v>
-      </c>
-      <c r="I15" s="7">
-        <v>187998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4518,7 +4524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4536,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4551,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4566,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,34 +4581,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>204</v>
+      </c>
+      <c r="D17" s="7">
+        <v>143871</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="7">
         <v>198</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>145639</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>204</v>
-      </c>
-      <c r="I17" s="7">
-        <v>143871</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -4611,13 +4617,13 @@
         <v>289509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,34 +4632,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>29430</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="7">
         <v>37</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>28409</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>29430</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>79</v>
@@ -4662,13 +4668,13 @@
         <v>57839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,25 +4683,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4742,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4757,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4781,34 +4787,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>896</v>
+      </c>
+      <c r="D21" s="7">
+        <v>592276</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="7">
         <v>893</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>622770</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21" s="7">
-        <v>896</v>
-      </c>
-      <c r="I21" s="7">
-        <v>592276</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M21" s="7">
         <v>1789</v>
@@ -4817,13 +4823,13 @@
         <v>1215045</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,34 +4838,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7">
+        <v>111194</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="7">
         <v>170</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>120788</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" s="7">
-        <v>164</v>
-      </c>
-      <c r="I22" s="7">
-        <v>111194</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -4868,13 +4874,13 @@
         <v>231983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,25 +4889,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D23" s="7">
+        <v>703470</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1063</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>743558</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I23" s="7">
-        <v>703470</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4950,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE82FA8E-BB70-4F8B-9380-F0769004FD48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338FD1C4-D368-4736-9459-51C90C8B36B0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,31 +5074,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>109</v>
+      </c>
+      <c r="D4" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7">
         <v>116</v>
       </c>
-      <c r="D4" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7">
-        <v>109</v>
-      </c>
       <c r="I4" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5101,13 +5107,13 @@
         <v>225</v>
       </c>
       <c r="N4" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5131,7 +5137,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5146,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5161,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5197,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5212,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,25 +5227,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5254,7 +5260,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5274,31 +5280,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>258</v>
+      </c>
+      <c r="D8" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
         <v>276</v>
       </c>
-      <c r="D8" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>258</v>
-      </c>
       <c r="I8" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -5307,13 +5313,13 @@
         <v>534</v>
       </c>
       <c r="N8" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -5337,7 +5343,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5352,7 +5358,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5367,7 +5373,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,7 +5394,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5403,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5418,7 +5424,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,25 +5433,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5460,7 +5466,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5480,31 +5486,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -5513,13 +5519,13 @@
         <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -5543,7 +5549,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5558,7 +5564,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5573,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5609,7 +5615,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5624,7 +5630,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,25 +5639,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5666,7 +5672,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5680,7 +5686,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5689,13 +5695,13 @@
         <v>342</v>
       </c>
       <c r="D16" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -5704,13 +5710,13 @@
         <v>342</v>
       </c>
       <c r="I16" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -5719,13 +5725,13 @@
         <v>684</v>
       </c>
       <c r="N16" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -5779,7 +5785,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5836,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5848,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5857,7 +5863,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5872,7 +5878,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5892,31 +5898,31 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>943</v>
+      </c>
+      <c r="D20" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7">
         <v>977</v>
       </c>
-      <c r="D20" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="7">
-        <v>943</v>
-      </c>
       <c r="I20" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -5925,13 +5931,13 @@
         <v>1920</v>
       </c>
       <c r="N20" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5955,7 +5961,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5970,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5985,7 +5991,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6021,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6036,7 +6042,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,25 +6051,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>943</v>
+      </c>
+      <c r="D23" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
       <c r="I23" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -6078,7 +6084,7 @@
         <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
